--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H2">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I2">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J2">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2510513333333333</v>
+        <v>0.4526816666666666</v>
       </c>
       <c r="N2">
-        <v>0.753154</v>
+        <v>1.358045</v>
       </c>
       <c r="O2">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="P2">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="Q2">
-        <v>11.79100663118889</v>
+        <v>25.97802077449222</v>
       </c>
       <c r="R2">
-        <v>106.1190596807</v>
+        <v>233.8021869704299</v>
       </c>
       <c r="S2">
-        <v>0.0002700757279421049</v>
+        <v>0.0006161147434135306</v>
       </c>
       <c r="T2">
-        <v>0.0002700757279421049</v>
+        <v>0.0006161147434135306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H3">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I3">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J3">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>8.823689666666668</v>
+        <v>0.35382</v>
       </c>
       <c r="N3">
-        <v>26.471069</v>
+        <v>1.06146</v>
       </c>
       <c r="O3">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="P3">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="Q3">
-        <v>414.4179677909945</v>
+        <v>20.30465112076</v>
       </c>
       <c r="R3">
-        <v>3729.76171011895</v>
+        <v>182.7418600868399</v>
       </c>
       <c r="S3">
-        <v>0.009492339189037949</v>
+        <v>0.0004815607402874912</v>
       </c>
       <c r="T3">
-        <v>0.009492339189037951</v>
+        <v>0.0004815607402874913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.96651666666666</v>
+        <v>57.38695133333332</v>
       </c>
       <c r="H4">
-        <v>140.89955</v>
+        <v>172.160854</v>
       </c>
       <c r="I4">
-        <v>0.5808027674561178</v>
+        <v>0.6542464432660997</v>
       </c>
       <c r="J4">
-        <v>0.5808027674561179</v>
+        <v>0.6542464432660998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>530.8157196666666</v>
+        <v>479.8918966666667</v>
       </c>
       <c r="N4">
-        <v>1592.447159</v>
+        <v>1439.67569</v>
       </c>
       <c r="O4">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="P4">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="Q4">
-        <v>24930.56534465315</v>
+        <v>27539.53291927102</v>
       </c>
       <c r="R4">
-        <v>224375.0881018784</v>
+        <v>247855.7962734392</v>
       </c>
       <c r="S4">
-        <v>0.5710403525391378</v>
+        <v>0.6531487677823987</v>
       </c>
       <c r="T4">
-        <v>0.5710403525391379</v>
+        <v>0.6531487677823988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I5">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J5">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2510513333333333</v>
+        <v>0.4526816666666666</v>
       </c>
       <c r="N5">
-        <v>0.753154</v>
+        <v>1.358045</v>
       </c>
       <c r="O5">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="P5">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="Q5">
-        <v>3.602104280038223</v>
+        <v>6.495112164291111</v>
       </c>
       <c r="R5">
-        <v>32.41893852034401</v>
+        <v>58.45600947862</v>
       </c>
       <c r="S5">
-        <v>8.250702980535962E-05</v>
+        <v>0.0001540430812371055</v>
       </c>
       <c r="T5">
-        <v>8.250702980535964E-05</v>
+        <v>0.0001540430812371055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I6">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J6">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>8.823689666666668</v>
+        <v>0.35382</v>
       </c>
       <c r="N6">
-        <v>26.471069</v>
+        <v>1.06146</v>
       </c>
       <c r="O6">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="P6">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="Q6">
-        <v>126.6029934675871</v>
+        <v>5.07663719384</v>
       </c>
       <c r="R6">
-        <v>1139.426941208284</v>
+        <v>45.68973474456</v>
       </c>
       <c r="S6">
-        <v>0.002899870782021647</v>
+        <v>0.0001204014366312884</v>
       </c>
       <c r="T6">
-        <v>0.002899870782021648</v>
+        <v>0.0001204014366312884</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>43.04423600000001</v>
       </c>
       <c r="I7">
-        <v>0.1774328689611447</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="J7">
-        <v>0.1774328689611448</v>
+        <v>0.16357689713892</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>530.8157196666666</v>
+        <v>479.8918966666667</v>
       </c>
       <c r="N7">
-        <v>1592.447159</v>
+        <v>1439.67569</v>
       </c>
       <c r="O7">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="P7">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="Q7">
-        <v>7616.185703280614</v>
+        <v>6885.526684869205</v>
       </c>
       <c r="R7">
-        <v>68545.67132952552</v>
+        <v>61969.74016382285</v>
       </c>
       <c r="S7">
-        <v>0.1744504911493177</v>
+        <v>0.1633024526210516</v>
       </c>
       <c r="T7">
-        <v>0.1744504911493178</v>
+        <v>0.1633024526210516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H8">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I8">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J8">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2510513333333333</v>
+        <v>0.4526816666666666</v>
       </c>
       <c r="N8">
-        <v>0.753154</v>
+        <v>1.358045</v>
       </c>
       <c r="O8">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="P8">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="Q8">
-        <v>4.469685971463556</v>
+        <v>6.571303166501666</v>
       </c>
       <c r="R8">
-        <v>40.227173743172</v>
+        <v>59.14172849851499</v>
       </c>
       <c r="S8">
-        <v>0.0001023791886625304</v>
+        <v>0.0001558500857115753</v>
       </c>
       <c r="T8">
-        <v>0.0001023791886625304</v>
+        <v>0.0001558500857115753</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H9">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I9">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J9">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>8.823689666666668</v>
+        <v>0.35382</v>
       </c>
       <c r="N9">
-        <v>26.471069</v>
+        <v>1.06146</v>
       </c>
       <c r="O9">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="P9">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="Q9">
-        <v>157.0958472755158</v>
+        <v>5.136188755979999</v>
       </c>
       <c r="R9">
-        <v>1413.862625479642</v>
+        <v>46.22569880381999</v>
       </c>
       <c r="S9">
-        <v>0.003598316635442234</v>
+        <v>0.0001218138073329003</v>
       </c>
       <c r="T9">
-        <v>0.003598316635442234</v>
+        <v>0.0001218138073329003</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.80387266666667</v>
+        <v>14.516389</v>
       </c>
       <c r="H10">
-        <v>53.411618</v>
+        <v>43.549167</v>
       </c>
       <c r="I10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="J10">
-        <v>0.2201683081933832</v>
+        <v>0.1654957381714162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>530.8157196666666</v>
+        <v>479.8918966666667</v>
       </c>
       <c r="N10">
-        <v>1592.447159</v>
+        <v>1439.67569</v>
       </c>
       <c r="O10">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="P10">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="Q10">
-        <v>9450.575482410362</v>
+        <v>6966.297449961136</v>
       </c>
       <c r="R10">
-        <v>85055.17934169325</v>
+        <v>62696.67704965023</v>
       </c>
       <c r="S10">
-        <v>0.2164676123692784</v>
+        <v>0.1652180742783717</v>
       </c>
       <c r="T10">
-        <v>0.2164676123692784</v>
+        <v>0.1652180742783717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H11">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I11">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J11">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2510513333333333</v>
+        <v>0.4526816666666666</v>
       </c>
       <c r="N11">
-        <v>0.753154</v>
+        <v>1.358045</v>
       </c>
       <c r="O11">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="P11">
-        <v>0.0004650042029328145</v>
+        <v>0.0009417166111561725</v>
       </c>
       <c r="Q11">
-        <v>0.4384263412151111</v>
+        <v>0.6623457074000001</v>
       </c>
       <c r="R11">
-        <v>3.945837070936</v>
+        <v>5.961111366600001</v>
       </c>
       <c r="S11">
-        <v>1.004225652281952E-05</v>
+        <v>1.570870079396112E-05</v>
       </c>
       <c r="T11">
-        <v>1.004225652281952E-05</v>
+        <v>1.570870079396112E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H12">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I12">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J12">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>8.823689666666668</v>
+        <v>0.35382</v>
       </c>
       <c r="N12">
-        <v>26.471069</v>
+        <v>1.06146</v>
       </c>
       <c r="O12">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="P12">
-        <v>0.01634348133466003</v>
+        <v>0.0007360540439218367</v>
       </c>
       <c r="Q12">
-        <v>15.40935045119956</v>
+        <v>0.5176952712</v>
       </c>
       <c r="R12">
-        <v>138.684154060796</v>
+        <v>4.6592574408</v>
       </c>
       <c r="S12">
-        <v>0.0003529547281581929</v>
+        <v>1.227805967015671E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003529547281581929</v>
+        <v>1.227805967015671E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.746361333333333</v>
+        <v>1.46316</v>
       </c>
       <c r="H13">
-        <v>5.239084</v>
+        <v>4.389480000000001</v>
       </c>
       <c r="I13">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="J13">
-        <v>0.02159605538935411</v>
+        <v>0.01668092142356404</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>530.8157196666666</v>
+        <v>479.8918966666667</v>
       </c>
       <c r="N13">
-        <v>1592.447159</v>
+        <v>1439.67569</v>
       </c>
       <c r="O13">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="P13">
-        <v>0.9831915144624072</v>
+        <v>0.998322229344922</v>
       </c>
       <c r="Q13">
-        <v>926.9960479513728</v>
+        <v>702.1586275268002</v>
       </c>
       <c r="R13">
-        <v>8342.964431562355</v>
+        <v>6319.427647741201</v>
       </c>
       <c r="S13">
-        <v>0.0212330584046731</v>
+        <v>0.01665293466309992</v>
       </c>
       <c r="T13">
-        <v>0.0212330584046731</v>
+        <v>0.01665293466309992</v>
       </c>
     </row>
   </sheetData>
